--- a/raw data/2019-local-legis-election.xlsx
+++ b/raw data/2019-local-legis-election.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisgoodman/Dropbox/Data/Chicagoland/chi-local-legis/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717E8EB5-16F6-A74B-84E1-0517F884EC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B5685D-44AB-C54C-B9C5-CBD6AD41BBAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="26400" windowHeight="16040" xr2:uid="{96F1D2EE-2046-B546-B406-A60B076A1068}"/>
+    <workbookView xWindow="1120" yWindow="1460" windowWidth="26400" windowHeight="16040" xr2:uid="{96F1D2EE-2046-B546-B406-A60B076A1068}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,7 +235,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -262,18 +262,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -283,22 +274,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +609,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,754 +619,761 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
         <v>1622</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>760</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>19059</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
         <v>1315</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>539</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>8898</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>3279</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1294</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>15697</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
         <v>7</v>
       </c>
-      <c r="E5" s="4">
-        <v>396</v>
-      </c>
-      <c r="F5">
-        <v>137</v>
-      </c>
-      <c r="G5">
-        <v>1204</v>
-      </c>
-      <c r="H5" s="6"/>
+      <c r="E5" s="7">
+        <f>396+21132</f>
+        <v>21528</v>
+      </c>
+      <c r="F5" s="6">
+        <f>137+7812</f>
+        <v>7949</v>
+      </c>
+      <c r="G5" s="6">
+        <f>1204+47121</f>
+        <v>48325</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
         <v>4175</v>
       </c>
-      <c r="F6">
-        <v>2429</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="6">
+        <f>137+7812</f>
+        <v>7949</v>
+      </c>
+      <c r="G6" s="2">
         <v>5877</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>5510</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>2132</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>26304</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
         <v>5978</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>3058</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>6450</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <f>749+506+618</f>
         <v>1873</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <f>964+617+674</f>
         <v>2255</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <f>2101+1907+3106</f>
         <v>7114</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>19081</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>8843</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>38866</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>9</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <f>812+457+308+1176+589+465+504</f>
         <v>4311</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <f>823+545+350+1189+735+598+607</f>
         <v>4847</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <f>4359+4830+4456+4721+5080+4913+5070</f>
         <v>33429</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <f>176+118+80</f>
         <v>374</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <f>176+130+94</f>
         <v>400</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <f>2802+3388+3342</f>
         <v>9532</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>7055</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>3649</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>22068</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
         <v>474</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>198</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <v>6311</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
         <v>8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="7">
         <v>8911</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>3637</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>16983</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="7">
         <f>160+746+597</f>
         <v>1503</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <f>187+755+610</f>
         <v>1552</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <f>4191+5505+5314</f>
         <v>15010</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>11</v>
       </c>
-      <c r="E17" s="4">
-        <v>45581</v>
-      </c>
-      <c r="F17">
-        <v>13192</v>
-      </c>
-      <c r="G17" s="5">
-        <v>70661</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="E17" s="7">
+        <f>45581+19387</f>
+        <v>64968</v>
+      </c>
+      <c r="F17" s="6">
+        <f>13192+5880</f>
+        <v>19072</v>
+      </c>
+      <c r="G17" s="2">
+        <f>70661+37882</f>
+        <v>108543</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
         <v>5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="7">
         <v>6995</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>3012</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>7436</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
         <f>30+22+14</f>
         <v>66</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <f>31+30+16</f>
         <v>77</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <f>521+426+821</f>
         <v>1768</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>6</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="7">
         <f>10+315+646+273+373+259</f>
         <v>1876</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <f>10+315+646+273+373+259</f>
         <v>1876</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <f>459+362+646+273+373+259</f>
         <v>2372</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6">
         <v>4</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="7">
         <v>4793</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="2">
         <v>2035</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <v>15001</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>7</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="7">
         <f>398+236+533+434</f>
         <v>1601</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="7">
         <f>471+243+551+437</f>
         <v>1702</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <f>2408+1822+2828+2431</f>
         <v>9489</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
         <v>364</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>159</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>1278</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>9</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="7">
         <f>96+59+58+51+137+101+102+33+32+139</f>
         <v>808</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="7">
         <f>114+80+59+164+116+37+164</f>
         <v>734</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <f>1725+1699+1690+2526+1930+1180+2712</f>
         <v>13462</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
         <v>2965</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>1608</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <v>16443</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
         <v>11124</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>7017</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <v>41429</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="7">
         <v>5295</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>2337</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6">
         <v>6810</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
         <v>6</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="7">
         <v>5375</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>1852</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="6">
         <v>8142</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>8</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="7">
         <f>795+512+424+486</f>
         <v>2217</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="7">
         <f>800+523+436+498</f>
         <v>2257</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <f>2591+2109+2009+2136</f>
         <v>8845</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
         <v>4</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="7">
         <v>3294</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="2">
         <v>1598</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="2">
         <v>23411</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H31" s="6"/>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
